--- a/BERT_AMP_Classification/Aggregated.xlsx
+++ b/BERT_AMP_Classification/Aggregated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Bidirectional_LSTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NLP-with-Antimicrobials\BERT_AMP_Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68550DE-F30A-4544-B8FC-2461BA222F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4219A9C4-B392-4E59-9389-DE0C289F3AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{07DCA2D0-89E9-4AD1-B8D7-E6F47BA105CD}"/>
+    <workbookView xWindow="13785" yWindow="5535" windowWidth="25785" windowHeight="15345" xr2:uid="{07DCA2D0-89E9-4AD1-B8D7-E6F47BA105CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25486,7 +25486,7 @@
   <dimension ref="A1:B8347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
